--- a/excels/GA/groupGA_color_space.xlsx
+++ b/excels/GA/groupGA_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -458,119 +458,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D6-28</t>
+          <t>0D1-61</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>235</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D6-29</t>
+          <t>0D1-62</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>247</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D5-40</t>
+          <t>0D1-63</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>236</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D5-41</t>
+          <t>0D1-64</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>231</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D3-53</t>
+          <t>0D1-65</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>185</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D3-52</t>
+          <t>0D1-66</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>213</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D5-33</t>
+          <t>0D1-67</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D1-68</t>
+          <t>0D1-68</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,78 +586,78 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D5-34</t>
+          <t>0D3-52</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="D10" t="n">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D3-55</t>
+          <t>0D3-53</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D4-48</t>
+          <t>0D3-54</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D4-49</t>
+          <t>0D3-55</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="D13" t="n">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D3-54</t>
+          <t>0D3-56</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
         <v>208</v>
@@ -666,167 +666,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D5-35</t>
+          <t>0D3-57</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D5-37</t>
+          <t>0D3-59</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D3-56</t>
+          <t>0D3-60</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D17" t="n">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D3-57</t>
+          <t>0D4-42</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D18" t="n">
-        <v>168</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D1-63</t>
+          <t>0D4-43</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D4-46</t>
+          <t>0D4-44</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D20" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D1-62</t>
+          <t>0D4-45</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D5-38</t>
+          <t>0D4-46</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D22" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D4-44</t>
+          <t>0D4-48</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D23" t="n">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D3-59</t>
+          <t>0D4-49</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D24" t="n">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D4-50</t>
+          <t>0D4-50</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -842,7 +842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D4-51</t>
+          <t>0D4-51</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -858,167 +858,167 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D4-45</t>
+          <t>0D5-33</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D27" t="n">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D5-39</t>
+          <t>0D5-34</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D28" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D1-61</t>
+          <t>0D5-35</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D29" t="n">
-        <v>88</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D1-65</t>
+          <t>0D5-37</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="D30" t="n">
-        <v>89</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D3-60</t>
+          <t>0D5-38</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="D31" t="n">
-        <v>174</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D1-64</t>
+          <t>0D5-39</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D1-66</t>
+          <t>0D5-40</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="D33" t="n">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D4-42</t>
+          <t>0D5-41</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D34" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D4-43</t>
+          <t>0D6-24</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D35" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D1-67</t>
+          <t>0D6-26</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="D36" t="n">
-        <v>86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D6-27</t>
+          <t>0D6-27</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1034,39 +1034,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D6-32</t>
+          <t>0D6-28</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D38" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D6-26</t>
+          <t>0D6-29</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="D39" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D6-30</t>
+          <t>0D6-30</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D6-24</t>
+          <t>0D6-31</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D41" t="n">
         <v>235</v>
@@ -1098,20 +1098,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D6-31</t>
+          <t>0D6-32</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>